--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +527,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +543,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,9 +619,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,14 +633,14 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -676,40 +653,25 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,11%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,89%</t>
         </is>
@@ -724,62 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 1,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,52; 5,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 0,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,21</t>
+          <t>0,0; 0,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,55</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,7</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 2,46</t>
+          <t>0,23; 2,52</t>
         </is>
       </c>
     </row>
@@ -806,50 +753,35 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>1,62%</t>
         </is>
@@ -864,62 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,44; 2,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,4; 2,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,52</t>
+          <t>1,19; 4,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,36</t>
+          <t>0,21; 1,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,31</t>
+          <t>0,17; 1,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 1,27</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 1,12</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 2,61</t>
+          <t>0,86; 2,62</t>
         </is>
       </c>
     </row>
@@ -936,60 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>3,62%</t>
         </is>
@@ -1004,62 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,13; 1,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,37</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,19</t>
+          <t>1,84; 5,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,27</t>
+          <t>1,76; 4,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,25; 3,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,28</t>
+          <t>2,71; 5,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,53</t>
+          <t>1,06; 2,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,54</t>
+          <t>0,81; 2,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 2,41</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 2,08</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 4,79</t>
+          <t>2,62; 4,89</t>
         </is>
       </c>
     </row>
@@ -1076,60 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>7,71%</t>
         </is>
@@ -1144,62 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,04; 3,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,68</t>
+          <t>1,19; 3,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,67</t>
+          <t>1,78; 6,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,7</t>
+          <t>4,08; 8,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>4,27; 7,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,31</t>
+          <t>9,56; 14,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,98</t>
+          <t>2,96; 5,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,75</t>
+          <t>3,05; 5,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 5,31</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>3,13; 5,27</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>4,78; 9,88</t>
+          <t>4,5; 9,72</t>
         </is>
       </c>
     </row>
@@ -1216,60 +1073,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>9,17%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>10,11%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>13,27%</t>
         </is>
@@ -1284,62 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,95; 5,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,47</t>
+          <t>3,22; 7,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,52</t>
+          <t>6,74; 11,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,21</t>
+          <t>11,52; 18,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>11,77; 18,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,48; 18,32</t>
+          <t>15,66; 20,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 18,42</t>
+          <t>7,24; 11,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,42; 20,41</t>
+          <t>8,25; 12,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 11,35</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>8,09; 12,3</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>11,67; 14,93</t>
+          <t>11,62; 14,99</t>
         </is>
       </c>
     </row>
@@ -1356,60 +1183,45 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>16,48%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>15,26%</t>
         </is>
@@ -1424,62 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>9,92; 18,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,61; 18,42</t>
+          <t>4,37; 9,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,21; 10,13</t>
+          <t>10,56; 15,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,12; 15,64</t>
+          <t>15,22; 23,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>16,86; 25,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,91; 23,35</t>
+          <t>6,72; 26,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 25,6</t>
+          <t>13,57; 19,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,26; 25,95</t>
+          <t>11,64; 16,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>13,71; 19,88</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>11,61; 16,88</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 19,96</t>
+          <t>8,67; 20,21</t>
         </is>
       </c>
     </row>
@@ -1496,60 +1293,45 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>28,5%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>22,44%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>37,58%</t>
         </is>
@@ -1564,62 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>15,14; 25,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,75; 24,99</t>
+          <t>12,58; 20,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,05; 21,47</t>
+          <t>23,48; 31,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,17; 31,36</t>
+          <t>29,52; 39,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>21,35; 31,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,35; 39,13</t>
+          <t>41,07; 47,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,96; 30,99</t>
+          <t>25,23; 32,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>41,06; 47,91</t>
+          <t>19,01; 25,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>24,75; 32,05</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>19,25; 26,21</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>34,87; 40,29</t>
+          <t>35,11; 40,38</t>
         </is>
       </c>
     </row>
@@ -1636,60 +1403,45 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>6,11%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>10,43%</t>
         </is>
@@ -1704,62 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,91; 4,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,36</t>
+          <t>2,53; 3,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,81</t>
+          <t>5,16; 7,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,68</t>
+          <t>8,24; 10,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,94; 10,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,44</t>
+          <t>11,25; 15,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,95; 10,02</t>
+          <t>5,86; 7,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,39</t>
+          <t>5,49; 6,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 7,12</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 6,72</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 11,35</t>
+          <t>9,1; 11,33</t>
         </is>
       </c>
     </row>
@@ -1772,19 +1509,1470 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cinco o más enfermedades crónicas de las que al menos una es limitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6370</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6370</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4969</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4806</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1629; 17697</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5326</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4815</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1645; 17963</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2397</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7207</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6019</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12805</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7207</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6019</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15203</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1975</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1996</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 8145</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2689; 15343</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2270; 12340</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6097; 22155</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2767; 17224</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1934; 12807</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8022; 24473</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2851</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2462</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16617</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20329</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14622</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24180</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23180</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17084</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40798</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>889; 8022</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9025</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9863; 27171</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12477; 30219</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8259; 22322</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16015; 33577</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14702; 35878</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10713; 26833</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29530; 55142</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12746</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14290</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>37920</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>36394</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>38249</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>85433</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>49139</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>52539</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>123353</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6421; 24205</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7696; 23708</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15840; 59347</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25166; 49575</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27684; 51892</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>68183; 104117</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36391; 65714</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39509; 69032</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>72006; 155593</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14681</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23787</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>49327</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>65735</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>74757</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>97828</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>80416</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>98544</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>147156</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8359; 24046</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15403; 36346</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>37807; 62866</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>51574; 83126</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>58494; 92805</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>85829; 111534</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>63521; 99289</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>80383; 122035</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>128841; 166207</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>41890</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>22237</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>47468</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>67489</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>78897</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>101504</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>109379</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>101134</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>148972</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>30725; 56071</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>14623; 32719</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>38893; 58400</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>53870; 84119</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>63672; 95948</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>40874; 158279</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>90081; 130167</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>82883; 119187</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>84701; 197334</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>49179</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>43313</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>76801</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>132880</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>104163</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>189473</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>182059</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>147476</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>266274</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>37837; 63213</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>32334; 53918</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>66398; 89078</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>114831; 152571</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>85426; 124838</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>174891; 203555</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>161168; 207006</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>124918; 170201</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>248792; 286108</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>122307</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>106089</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>230531</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>330034</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>317665</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>517594</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>452341</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>423754</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>748125</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>99877; 145479</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>85975; 127247</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>178594; 261829</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>293090; 366377</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>281573; 356245</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>417804; 567954</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>409542; 495356</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>380773; 462015</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>652587; 812477</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>